--- a/data_ingest/ipeds/dictionaries/adm2022.xlsx
+++ b/data_ingest/ipeds/dictionaries/adm2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhie\OneDrive - Northeastern University\ALY6980\ipedsllm\data_ingest\ipeds\dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/abhishek_f_northeastern_edu/Documents/CapstoneProject/ipedsllm/data_ingest/ipeds/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3C1E27-AA1C-4D69-8ED1-F9055AC41601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12444,15 +12444,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F249D8A6032D8F44A8695BAB1ED804A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="943002b5c5718a80327e0c74ae088035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9cb4ddb6-6161-49c1-81e7-d2838d0e0710" xmlns:ns3="45d1199b-1a3a-4a1d-85f2-919eb909bc88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad23bb0b9d0a66e149f1cd3daa302f8" ns2:_="" ns3:_="">
     <xsd:import namespace="9cb4ddb6-6161-49c1-81e7-d2838d0e0710"/>
@@ -12653,6 +12644,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12660,14 +12660,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804B0364-B51E-4CC3-AA7D-C98BD56FEE10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983B5357-AE1F-44B3-81A5-3339726DE6EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12686,6 +12678,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804B0364-B51E-4CC3-AA7D-C98BD56FEE10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68FA4D6B-AD69-41B1-A0A0-438E614BFBF6}">
   <ds:schemaRefs>
